--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_23.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_23.xlsx
@@ -483,76 +483,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1187888198757764</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E'], ['A', 'B', 'E']]</t>
+          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.444363, 11.013666), (13.393711, 17.886772)]</t>
+          <t>[(4.34, 18.1)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(76.889251, 80.407074), (6.126439, 9.980952)]</t>
+          <t>[(151.76, 154.92)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_170</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1465116279069767</v>
+        <v>0.2867383512544803</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'E']]</t>
+          <t>[['C', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['D/7', 'D/6', 'A', 'A/2']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.291354, 14.073123)]</t>
+          <t>[(10.234761, 21.635759)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.822, 20.852)]</t>
+          <t>[(12.39, 14.716166)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -561,35 +557,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1868131868131868</v>
+        <v>0.05746268656716418</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.56, 21.44)]</t>
+          <t>[(1.76, 3.13)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(148.857891, 153.176802)]</t>
+          <t>[(12.99, 14.37)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -598,35 +594,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.106312292358804</v>
+        <v>0.1130952380952381</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['F#', 'B', 'E'], ['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.78, 23.84)]</t>
+          <t>[(187.44, 190.02), (2.56, 21.44)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.103323, 13.890534)]</t>
+          <t>[(29.008095, 34.615714), (16.701519, 23.528185)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -635,117 +631,109 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.06593406593406594</v>
+        <v>0.3819444444444445</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db:maj6/2'], ['F:min', 'C:7', 'F:min'], ['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:min/D', 'D:7', 'G:min'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.858, 80.628), (17.833, 21.409), (0.243, 9.12)]</t>
+          <t>[(9.2, 26.6)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(64.32, 66.92), (43.18, 45.1), (18.26, 24.82)]</t>
+          <t>[(0.38, 8.9)]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06995192307692308</v>
+        <v>0.3642857142857143</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
+          <t>[(37.995918, 46.610521)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.12, 24.54)]</t>
+          <t>[(62.2, 64.4)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>isophonics_59</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2095238095238095</v>
+        <v>0.2491694352159468</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>[['D', 'D', 'D/7']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[(10.454596, 24.259614)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.243, 9.12)]</t>
+          <t>[(0.325509, 3.175895)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -754,116 +742,124 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1699346405228758</v>
+        <v>0.1859649122807017</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'F', 'Bb']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(55.589104, 74.118628)]</t>
+          <t>[(118.4, 122.04)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(20.567641, 27.754217)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[(135.68755, 139.228594)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1517241379310345</v>
+        <v>0.082579185520362</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06)]</t>
+          <t>[(36.711, 39.787)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.84, 22.2)]</t>
+          <t>[(83.1, 90.02)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2015810276679842</v>
+        <v>0.2202898550724638</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[(6.76, 12.96)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[(2.98, 6.7)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
@@ -873,224 +869,240 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0586472602739726</v>
+        <v>0.2913752913752914</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:7', 'Db', 'Db'], ['Ab', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F', 'F'], ['C', 'D:7', 'G:7', 'C']]</t>
+          <t>[['C:min', 'G:maj/B', 'C:min', 'C:7/A#', 'F:min/G#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(114.62, 118.0), (130.09, 133.24)]</t>
+          <t>[(13.48, 24.64)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(112.41, 115.33), (40.43, 45.01)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[(16.24, 20.38)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1208333333333333</v>
+        <v>0.1517241379310345</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5']]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(51.839081, 63.042709)]</t>
+          <t>[(19.48, 25.86)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.922018, 6.206099)]</t>
+          <t>[(17.12, 24.9)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>jaah_84</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.2135416666666667</v>
+        <v>0.09200310559006211</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['Eb:7', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['G#:7', 'C#:maj', 'C#:maj/G#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.74, 12.42)]</t>
+          <t>[(16.64, 22.17)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[(10.72, 13.18)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04554794520547945</v>
+        <v>0.0945054945054945</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7'], ['G', 'C:min', 'C:min']]</t>
+          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A'], ['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7'], ['Eb', 'Ab:min', 'Ab:min']]</t>
+          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(253.0, 255.52), (13.66, 19.54)]</t>
+          <t>[(56.44, 65.46), (61.68, 67.26), (74.9, 86.12), (6.38, 12.5)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.73, 17.33), (6.59, 9.13)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[(20.78, 31.6), (70.74, 73.74), (72.64, 79.22), (73.74, 83.38)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3676470588235294</v>
+        <v>0.06474358974358974</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>[['E', 'C#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>[['F:maj', 'D:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(55.68, 66.1)]</t>
+          <t>[(49.708684, 51.76365)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.435, 34.866)]</t>
+          <t>[(10.18, 16.02)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2145593869731801</v>
+        <v>0.2611111111111111</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>[['A', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['B', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(8.413696, 14.334784)]</t>
+          <t>[(45.336, 53.359)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(21.513, 28.197)]</t>
+          <t>[(8.291354, 17.463236)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_23.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09102564102564104</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>[['C', 'C', 'G'], ['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.34, 18.1)]</t>
+          <t>[['A', 'A/3', 'E/5'], ['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(151.76, 154.92)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:11.651179', '0:00:16.527369'), ('0:01:43.520929', '0:01:48.664149')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:12.404000', '0:00:17.043000'), ('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2867383512544803</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1317204301075269</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/7', 'D/6', 'A', 'A/2']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.234761, 21.635759)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.39, 14.716166)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.05746268656716418</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1138310893512852</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:dim7']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.76, 3.13)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.99, 14.37)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:36.752312', '0:01:39.387777')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E'], ['E', 'B', 'E']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(187.44, 190.02), (2.56, 21.44)]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(29.008095, 34.615714), (16.701519, 23.528185)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:01.880000', '0:00:06.560000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1217948717948718</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.2, 26.6)]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3642857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj'], ['G#:7', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:09.060000', '0:00:12.540000'), ('0:00:08.480000', '0:00:11.980000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2491694352159468</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.175895)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:01.300000', '0:01:10.460000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1859649122807017</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_29</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(118.4, 122.04)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(135.68755, 139.228594)]</t>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.800000', '0:00:09.520000'), ('0:01:10.800000', '0:01:18.300000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.082579185520362</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:25.040000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min', 'C:7/A#', 'F:min/G#']]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.48, 24.64)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.24, 20.38)]</t>
+          <t>[('0:00:59.600000', '0:01:10.340000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(19.48, 25.86)]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.12, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_84</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09200310559006211</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6257352941176471</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'C#:maj/G#']]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.64, 22.17)]</t>
+          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.72, 13.18)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:00.541156', '0:02:23.041292')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:57.952131', '0:02:31.098616')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7/D#', 'A#:maj/D'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj', 'C:7/A#', 'F:maj/A'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(56.44, 65.46), (61.68, 67.26), (74.9, 86.12), (6.38, 12.5)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.78, 31.6), (70.74, 73.74), (72.64, 79.22), (73.74, 83.38)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06474358974358974</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'D:min', 'G:min/A#']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(49.708684, 51.76365)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.18, 16.02)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_5</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2611111111111111</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G', 'D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'A', 'E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(45.336, 53.359)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.291354, 17.463236)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
